--- a/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,03</t>
+          <t>1,27; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,32</t>
+          <t>3,75; 9,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,68</t>
+          <t>1,56; 4,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,7</t>
+          <t>0,98; 2,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,37</t>
+          <t>4,61; 9,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,68</t>
+          <t>1,13; 3,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,72</t>
+          <t>1,33; 2,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,23</t>
+          <t>4,9; 8,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,5</t>
+          <t>1,61; 3,66</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,41</t>
+          <t>0,75; 3,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,44</t>
+          <t>5,78; 12,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,97</t>
+          <t>2,36; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,96</t>
+          <t>0,63; 2,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,95</t>
+          <t>3,57; 8,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,85</t>
+          <t>1,95; 5,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,43</t>
+          <t>0,91; 2,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,67</t>
+          <t>5,5; 9,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,83</t>
+          <t>2,58; 5,35</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,7</t>
+          <t>1,32; 3,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,64</t>
+          <t>0,94; 10,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,55</t>
+          <t>0,7; 3,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,74</t>
+          <t>2,83; 8,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 14,63</t>
+          <t>7,53; 17,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,83</t>
+          <t>0,91; 6,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,82</t>
+          <t>2,15; 4,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,72</t>
+          <t>1,59; 11,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,03</t>
+          <t>1,09; 3,53</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,9</t>
+          <t>0,82; 2,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,93</t>
+          <t>6,3; 12,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,66</t>
+          <t>1,3; 4,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,46</t>
+          <t>2,13; 4,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,25</t>
+          <t>1,82; 7,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,69</t>
+          <t>2,31; 6,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,13</t>
+          <t>1,63; 2,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,64</t>
+          <t>3,88; 8,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,85</t>
+          <t>2,13; 4,43</t>
         </is>
       </c>
     </row>
@@ -1072,42 +1073,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,08</t>
+          <t>1,03; 4,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,91</t>
+          <t>4,5; 13,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,95</t>
+          <t>0,84; 5,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,24</t>
+          <t>1,41; 3,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,65</t>
+          <t>5,78; 13,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,04</t>
+          <t>1,25; 6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,72</t>
+          <t>1,49; 3,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 9,95</t>
+          <t>6,33; 12,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,53</t>
+          <t>1,39; 4,52</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,5; 4,52</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 9,21</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 8,76</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 2,91</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 45,11</t>
+          <t>1,76; 4,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,95</t>
+          <t>5,66; 11,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,61</t>
+          <t>1,75; 38,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 24,65</t>
+          <t>1,71; 4,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,92</t>
+          <t>4,56; 8,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,82</t>
+          <t>0,96; 21,39</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,52</t>
+          <t>1,45; 2,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 7,9</t>
+          <t>4,56; 8,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,4</t>
+          <t>1,98; 3,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,02</t>
+          <t>2,08; 3,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,19</t>
+          <t>5,07; 8,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,91</t>
+          <t>2,43; 4,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,54</t>
+          <t>1,92; 2,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 7,84</t>
+          <t>5,5; 7,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,55</t>
+          <t>2,39; 3,48</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el catarro</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2993</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22309</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8154</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2321</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20024</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6069</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5314</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42333</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14223</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1851; 4679</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13750; 36044</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4602; 13879</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1404; 3711</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13793; 28913</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3132; 10804</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3837; 7341</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32633; 59413</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9223; 20943</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27964</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7938</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42607</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15954</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>607; 2842</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18738; 41859</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4619; 12799</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>691; 2419</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9257; 21172</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4518; 13278</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1725; 4644</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32103; 57752</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11028; 22867</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3641</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21435</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3227</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3277</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11398</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6918</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32833</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2170; 5729</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4449; 51677</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1259; 6582</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1788; 5294</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7347; 16594</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>753; 5270</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4890; 9793</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9103; 64005</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2876; 9306</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2387</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>46667</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5343</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31107</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11905</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7730</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>77774</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19243</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1392; 3905</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33790; 67261</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4004; 13497</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3778; 7519</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11612; 49627</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7313; 19361</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5653; 9928</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45516; 104694</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13322; 27682</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16481</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>43303</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4541</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>59784</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7942</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>793; 3076</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9502; 27790</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1259; 8053</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1875; 4721</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24510; 58504</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1936; 9747</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3127; 6880</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40235; 76708</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4245; 13811</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4031</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3405</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37168</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1464</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>41200</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1464</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>227; 2047</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>807; 15363</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2076; 5360</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>27736; 54305</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>200; 4411</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2804; 6554</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29955; 56034</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>200; 4445</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12844</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>138887</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30134</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18779</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>157644</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>33960</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>31623</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>296531</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64095</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9937; 15891</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>94857; 175878</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22526; 39495</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15464; 22604</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>111845; 186564</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>26100; 45104</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27344; 36793</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>235898; 342537</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>52828; 77027</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro</t>
+          <t>Consumo de medicamentos para el catarro (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el catarro</t>
+          <t>Consumo de medicamentos para el catarro (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,21</t>
+          <t>1,3; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,83</t>
+          <t>3,79; 9,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,6</t>
+          <t>1,5; 4,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,67</t>
+          <t>4,67; 9,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,54</t>
+          <t>1,64; 3,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,93</t>
+          <t>4,6; 8,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,5</t>
+          <t>0,86; 3,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 12,92</t>
+          <t>5,76; 12,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,22</t>
+          <t>0,98; 3,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,17</t>
+          <t>3,57; 8,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,44</t>
+          <t>1,09; 2,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,9</t>
+          <t>5,46; 10,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,5</t>
+          <t>1,47; 3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 10,87</t>
+          <t>1,24; 10,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,38</t>
+          <t>2,25; 7,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 17,01</t>
+          <t>7,63; 18,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,31</t>
+          <t>2,08; 4,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 11,17</t>
+          <t>1,87; 11,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,3</t>
+          <t>0,92; 2,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 12,54</t>
+          <t>6,06; 12,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,24</t>
+          <t>2,53; 5,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,8</t>
+          <t>1,77; 7,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,86</t>
+          <t>1,96; 3,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 8,93</t>
+          <t>3,6; 8,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,0</t>
+          <t>0,99; 4,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,16</t>
+          <t>4,38; 12,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,55</t>
+          <t>1,52; 3,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 13,8</t>
+          <t>5,93; 13,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,28</t>
+          <t>1,59; 3,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,08</t>
+          <t>6,35; 12,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,52</t>
+          <t>0,47; 4,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 9,21</t>
+          <t>0,56; 8,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,53</t>
+          <t>2,65; 5,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,08</t>
+          <t>5,74; 10,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,01</t>
+          <t>2,05; 4,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,53</t>
+          <t>4,62; 8,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,33</t>
+          <t>1,59; 2,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,45</t>
+          <t>4,26; 8,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,04</t>
+          <t>2,5; 3,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,46</t>
+          <t>5,11; 8,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,58</t>
+          <t>2,2; 2,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,99</t>
+          <t>5,39; 8,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1851; 4679</t>
+          <t>2109; 5978</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13750; 36044</t>
+          <t>13886; 34246</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1404; 3711</t>
+          <t>2536; 6832</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13793; 28913</t>
+          <t>13964; 28166</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3837; 7341</t>
+          <t>5429; 10990</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32633; 59413</t>
+          <t>30607; 57355</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>2359</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>607; 2842</t>
+          <t>781; 3362</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18738; 41859</t>
+          <t>18677; 40565</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>691; 2419</t>
+          <t>1200; 4477</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9257; 21172</t>
+          <t>9266; 21906</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1725; 4644</t>
+          <t>2318; 5958</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32103; 57752</t>
+          <t>31869; 58826</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3641</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2170; 5729</t>
+          <t>2261; 5468</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4449; 51677</t>
+          <t>5907; 50035</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1788; 5294</t>
+          <t>1385; 4500</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7347; 16594</t>
+          <t>7442; 17817</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4890; 9793</t>
+          <t>4476; 8770</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9103; 64005</t>
+          <t>10686; 63536</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5343</t>
+          <t>6609</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1392; 3905</t>
+          <t>1555; 4152</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33790; 67261</t>
+          <t>32475; 65585</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3778; 7519</t>
+          <t>4601; 9171</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11612; 49627</t>
+          <t>11269; 50482</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5653; 9928</t>
+          <t>6884; 12429</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45516; 104694</t>
+          <t>42180; 103134</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3146</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>793; 3076</t>
+          <t>736; 3073</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9502; 27790</t>
+          <t>9245; 26365</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1875; 4721</t>
+          <t>1903; 4926</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24510; 58504</t>
+          <t>25121; 57528</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3127; 6880</t>
+          <t>3172; 6840</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40235; 76708</t>
+          <t>40322; 77068</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>979</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>227; 2047</t>
+          <t>259; 2388</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>807; 15363</t>
+          <t>941; 13627</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2076; 5360</t>
+          <t>3245; 7076</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27736; 54305</t>
+          <t>28114; 51748</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2804; 6554</t>
+          <t>3658; 8100</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>29955; 56034</t>
+          <t>30353; 56759</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12844</t>
+          <t>14065</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18779</t>
+          <t>23514</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>31623</t>
+          <t>37578</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9937; 15891</t>
+          <t>11271; 17682</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>94857; 175878</t>
+          <t>88546; 169553</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>15464; 22604</t>
+          <t>19610; 28635</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>111845; 186564</t>
+          <t>112778; 187850</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>27344; 36793</t>
+          <t>32715; 43415</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>235898; 342537</t>
+          <t>231075; 344047</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_CAT-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,29%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,39%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,52; 8,88</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 4,7</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,3; 3,67</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 9,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 4,7</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>4,5; 8,7</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 3,9</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1,5; 4,05</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 9,42</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 3,9</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>4,37; 8,17</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 3,66</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,64; 3,32</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 8,62</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 3,66</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,76%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1,92%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5,95; 12,68</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 6,54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,86; 3,72</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 12,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 6,54</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,4; 8,02</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 5,72</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,98; 3,65</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 8,45</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 5,72</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>5,34; 9,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 5,35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>1,09; 2,8</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,46; 10,08</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 5,35</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,33%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>4,27%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,47%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,89%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>5,59; 12,88</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 3,64</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,47; 3,55</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 10,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 3,64</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>7,79; 18,09</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 6,36</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,25; 7,3</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 18,26</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 6,36</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>6,92; 13,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 3,53</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,08; 4,07</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 11,09</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 3,53</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,53%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,7%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,63%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,63%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6,81; 12,34</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 4,38</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,92; 2,45</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 12,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 4,38</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5,23; 9,14</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 6,13</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2,53; 5,03</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,77; 7,93</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 6,13</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6,52; 10,08</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 4,43</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,96; 3,53</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 8,8</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 4,43</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,12%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2,51%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,21%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,93%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>2,36%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,07; 11,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 5,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,99; 4,13</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 12,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 5,36</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>10,03; 15,85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 6,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,52; 3,93</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 13,57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 6,29</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>8,52; 13,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 4,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1,59; 3,42</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,35; 12,13</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 4,52</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,76%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>3,87%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>12,8%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,04%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>3,21%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,38; 10,8</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,47; 4,29</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 8,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>5,65; 10,27</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 38,58</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>2,65; 5,77</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 10,56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 38,58</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>5,13; 9,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 21,39</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>2,05; 4,55</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 8,64</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 21,39</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,99%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,68%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>3,0%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,15%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>2,52%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,29; 9,07</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 3,46</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,59; 2,5</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 8,15</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 3,46</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>7,13; 9,29</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 4,2</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>2,5; 3,66</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 8,52</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 4,2</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>7,03; 8,81</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 3,48</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>2,2; 2,91</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,39; 8,03</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 3,48</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>39</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>22749</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8154</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>3735</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>22309</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>8154</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>20877</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6069</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>4026</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>20024</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6069</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>43626</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14223</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>7761</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>42333</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>14223</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>13916; 35120</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4602; 13879</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2109; 5978</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13886; 34246</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4602; 13879</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>14732; 28492</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3132; 10804</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2536; 6832</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13964; 28166</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3132; 10804</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>31603; 59047</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9223; 20943</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>5429; 10990</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>30607; 57355</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9223; 20943</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>29755</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8016</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1595</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>27964</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8016</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>15299</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7938</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2359</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14642</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7938</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>45054</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15954</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3954</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>42607</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15954</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>20484; 43678</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4619; 12799</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>781; 3362</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>18677; 40565</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4619; 12799</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>9719; 22961</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4518; 13278</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1200; 4477</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9266; 21906</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4518; 13278</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>33687; 61923</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11028; 22867</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2318; 5958</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>31869; 58826</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11028; 22867</t>
         </is>
       </c>
     </row>
@@ -1880,42 +1880,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>37</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>22578</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3227</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>3585</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>21435</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3227</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>13402</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2633</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11398</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2042</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>35980</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6218</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>32833</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5269</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>14577; 33548</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1259; 6582</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2261; 5468</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5907; 50035</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1259; 6582</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>8684; 20164</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>753; 5270</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1385; 4500</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7442; 17817</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>753; 5270</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>25745; 49413</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2876; 9306</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4476; 8770</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10686; 63536</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2876; 9306</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>54</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>55269</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2594</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>46667</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7338</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>34044</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11905</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>6609</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>31107</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11905</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>89313</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19243</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>9203</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>77774</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>19243</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>41540; 75254</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4004; 13497</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1555; 4152</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>32475; 65585</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4004; 13497</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>25638; 44763</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7313; 19361</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>4601; 9171</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>11269; 50482</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7313; 19361</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>71678; 110833</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13322; 27682</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>6884; 12429</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>42180; 103134</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>13322; 27682</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>29</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>18333</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1577</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>16481</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3400</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>51596</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4541</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>3146</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>43303</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>4541</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>69930</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7942</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>4723</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>59784</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>7942</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>10307; 28682</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1259; 8053</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>736; 3073</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>9245; 26365</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1259; 8053</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>40935; 64690</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1936; 9747</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>1903; 4926</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>25121; 57528</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1936; 9747</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>56373; 88760</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4245; 13811</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>3172; 6840</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>40322; 77068</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>4245; 13811</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>7080</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>979</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>4031</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>41128</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1464</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>4741</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>37168</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>48208</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>1464</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>5720</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>41200</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1464</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>2338; 18300</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>259; 2388</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>941; 13627</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>30883; 56168</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>200; 4411</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>3245; 7076</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>28114; 51748</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>200; 4411</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>36752; 66438</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>200; 4445</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>3658; 8100</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>30353; 56759</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>200; 4445</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>125</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>207</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>116</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>155765</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>30134</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>14065</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>138887</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>30134</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>176347</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>33960</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>23514</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>157644</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>33960</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>332112</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>64095</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>37578</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>296531</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>64095</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>127898; 184463</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>22526; 39495</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>11271; 17682</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>88546; 169553</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>22526; 39495</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>154622; 201577</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>26100; 45104</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>19610; 28635</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>112778; 187850</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>26100; 45104</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>295471; 370296</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>52828; 77027</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>32715; 43415</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>231075; 344047</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>52828; 77027</t>
         </is>
       </c>
     </row>
